--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmilando\Documents\GitHub\CHDS_bookdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12825EF-EB87-4EF3-9340-75853941CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB1B22-97B3-4358-BC23-720C70520238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{80686617-EE27-48D2-8DED-224E5B50C944}"/>
   </bookViews>
@@ -161,69 +161,6 @@
     <t xml:space="preserve"> Global open-science network using the OMOP data model to enable distributed observational research across EHR and claims data. Tools for comparative effectiveness and large-scale phenotyping.                                               </t>
   </si>
   <si>
-    <t xml:space="preserve">(data_ACS.qmd)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CMSMedicaid.qmd)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CMSMedicare.qmd)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CMSTMSIS.qmd)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CHIAAPCD.qmd)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_Marketscan.qmd)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_EPIC.qmd)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CDC.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_CENSUS.qmd)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_HRSA.qmd)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_IMLS.qmd)      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_USDA.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_VINCI.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_AllOfUs.qmd)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_NIA.qmd)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_OptumLabs.qmd)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_TriNetX.qmd)              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_OCHIN.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_i2b2.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_N3C.qmd)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(platform_OHDSI.qmd) </t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -293,9 +230,6 @@
     <t>OHDSI (Observational Health Data Sciences and Informatics)</t>
   </si>
   <si>
-    <t xml:space="preserve">(data_DataAxle.qmd)    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Administrative/claims                                | </t>
   </si>
   <si>
@@ -344,19 +278,85 @@
     <t>Urban ARCH</t>
   </si>
   <si>
-    <t xml:space="preserve">(data_FHS.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_ARCH.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_BBRAIN.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_ADRC.qmd) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data_MWCCS.qmd) </t>
+    <t xml:space="preserve">data_DataAxle.qmd    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_ACS.qmd    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CMSMedicaid.qmd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CMSMedicare.qmd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CMSTMSIS.qmd    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CHIAAPCD.qmd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_Marketscan.qmd  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_EPIC.qmd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CDC.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_CENSUS.qmd        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_HRSA.qmd       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_IMLS.qmd      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_USDA.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_VINCI.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_AllOfUs.qmd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_NIA.qmd    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_OptumLabs.qmd       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_TriNetX.qmd              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_OCHIN.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_i2b2.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_N3C.qmd  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform_OHDSI.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_MWCCS.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_FHS.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_ARCH.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_BBRAIN.qmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_ADRC.qmd </t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56A8E-4DDA-433F-A680-797C2DE799D9}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,47 +763,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1052,13 +1052,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1154,75 +1154,75 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmilando\Documents\GitHub\CHDS_bookdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwm/Documents/GitHub/CHDS_bookdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB1B22-97B3-4358-BC23-720C70520238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D834472-C0CC-7F41-BE28-4F8F5071EA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{80686617-EE27-48D2-8DED-224E5B50C944}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="11300" xr2:uid="{80686617-EE27-48D2-8DED-224E5B50C944}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,131 +36,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t xml:space="preserve"> National survey            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Annual U.S. Census survey covering 3.5M households. Offers tract-level demographic, housing, and economic data. Key for policy and spatial analysis. Estimates have margins of error for small areas.                          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims                                   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Claims and enrollment data for 70M+ Medicaid beneficiaries. Strong for analyzing access, costs, and care use in low-income populations. Limitations include state variability and reporting lags.                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Claims and enrollment data for ~65M older or disabled Americans. Ideal for longitudinal studies of healthcare use in older adults. Lacks younger/uninsured populations and clinical granularity.                              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims                                    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Standardized Medicaid/CHIP data from all states. Includes claims, enrollment, and provider data. Designed for national comparability. Challenging to use; varies in quality across states.                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims                                      </t>
   </si>
   <si>
-    <t xml:space="preserve"> Massachusetts all-payer claims database covering ~80% of the population. Strong for health utilization and insurance analysis. Lacks uninsured individuals and comprehensive race/ethnicity data.                              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims                                       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Proprietary claims database with 200M+ covered lives. Detailed data for commercially insured individuals. Excellent for utilization and cost studies, but not generalizable to public/uninsured populations.                 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical                                    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Clinical EHR data from EPIC systems. Rich in labs, diagnoses, medications, and procedures. Granular and timely, but limited to care within EPIC networks and varies by institution.                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Public health/community  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Public health datasets including mortality (WONDER), food environment (mRFEI), local disease burden (PLACES), and life expectancy (USALEEP). Easy access, but often ecological with time lags.                                </t>
-  </si>
-  <si>
     <t xml:space="preserve"> National survey                               </t>
   </si>
   <si>
-    <t xml:space="preserve"> Decennial population count (~330M U.S. residents). Provides full coverage demographic and housing data. Used for policy, planning, and allocation. Conducted every 10 years; limited variable detail.                         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> National survey                                    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Health access and provider shortage data, including HPSAs and FQHCs. Covers underserved regions and providers. Ideal for access-to-care studies; lacks clinical or patient-level detail.                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Public health/community                                   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Library and museum usage and operations data from thousands of institutions. Useful for civic infrastructure research. No individual health data and few public health indicators.                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> National survey   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Food environment, SNAP participation, and rurality measures. Common in food insecurity and rural health work. Data are ecological and updates can lag behind.                                                                 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims </t>
   </si>
   <si>
-    <t xml:space="preserve"> Secure VA-managed environment offering access to national EHR data for 9M+ veterans, including structured/unstructured data, pharmacy, imaging, and claims. Used in chronic disease and aging research.                           </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical                  </t>
   </si>
   <si>
-    <t xml:space="preserve"> NIH initiative collecting EHR, biospecimen, survey, and wearable data from 1M+ participants. Focus on diversity, longitudinal tracking, and personalized medicine via a secure Researcher Workbench.                             </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Administrative/claims              </t>
   </si>
   <si>
-    <t xml:space="preserve"> Links Medicare claims to NIA-funded studies (e.g., HRS, NHATS). Enables longitudinal analysis of older adults' health, spending, and outcomes. Managed by Acumen LLC with curated, linked datasets.                              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical               </t>
   </si>
   <si>
-    <t xml:space="preserve"> Large dataset of claims + EHR for 200M+ patients, used in real-world evidence research. Strong linkage, cost/utilization analysis; access is proprietary and costly.                                                              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical                           </t>
   </si>
   <si>
-    <t xml:space="preserve"> Federated EHR network used for real-time cohort building, feasibility assessment, and clinical trial recruitment. De-identified data from 120+ global healthcare orgs.                                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical       </t>
   </si>
   <si>
-    <t xml:space="preserve"> PCORnet network aggregating EHR and claims data from safety-net providers, focusing on underserved populations. Uses PCORnet CDM. Strong for health equity and primary care research.                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/claims </t>
   </si>
   <si>
-    <t xml:space="preserve"> Open-source platform for EHR cohort discovery at academic centers. Provides aggregate patient counts for exploratory work. Customizable, but no direct access to patient-level data.                                           </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/claims  </t>
   </si>
   <si>
-    <t xml:space="preserve"> NIH-sponsored data enclave with harmonized EHR from 80+ institutions. Initially focused on COVID-19, now expanded. Supports ML and advanced analytics with OMOP-standardized data.                                               </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EHR/clinical </t>
   </si>
   <si>
-    <t xml:space="preserve"> Global open-science network using the OMOP data model to enable distributed observational research across EHR and claims data. Tools for comparative effectiveness and large-scale phenotyping.                                               </t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -275,9 +212,6 @@
     <t>ADRC</t>
   </si>
   <si>
-    <t>Urban ARCH</t>
-  </si>
-  <si>
     <t xml:space="preserve">data_DataAxle.qmd    </t>
   </si>
   <si>
@@ -357,6 +291,81 @@
   </si>
   <si>
     <t xml:space="preserve">data_ADRC.qmd </t>
+  </si>
+  <si>
+    <t>The Boston Biorepository, Recruitment, and Integrative Network (BBRAIN) is a national research resource created to advance the study of Gulf War Illness (GWI)</t>
+  </si>
+  <si>
+    <t>URBAN ARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual U.S. Census survey covering 3.5M households. Offers tract-level demographic, housing, and economic data. Key for policy and spatial analysis. Estimates have margins of error for small areas.                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claims and enrollment data for 70M+ Medicaid beneficiaries. Strong for analyzing access, costs, and care use in low-income populations. Limitations include state variability and reporting lags.                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claims and enrollment data for ~65M older or disabled Americans. Ideal for longitudinal studies of healthcare use in older adults. Lacks younger/uninsured populations and clinical granularity.                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized Medicaid/CHIP data from all states. Includes claims, enrollment, and provider data. Designed for national comparability. Challenging to use; varies in quality across states.                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts all-payer claims database covering ~80% of the population. Strong for health utilization and insurance analysis. Lacks uninsured individuals and comprehensive race/ethnicity data.                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietary claims database with 200M+ covered lives. Detailed data for commercially insured individuals. Excellent for utilization and cost studies, but not generalizable to public/uninsured populations.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical EHR data from EPIC systems. Rich in labs, diagnoses, medications, and procedures. Granular and timely, but limited to care within EPIC networks and varies by institution.                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public health datasets including mortality (WONDER), food environment (mRFEI), local disease burden (PLACES), and life expectancy (USALEEP). Easy access, but often ecological with time lags.                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decennial population count (~330M U.S. residents). Provides full coverage demographic and housing data. Used for policy, planning, and allocation. Conducted every 10 years; limited variable detail.                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health access and provider shortage data, including HPSAs and FQHCs. Covers underserved regions and providers. Ideal for access-to-care studies; lacks clinical or patient-level detail.                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library and museum usage and operations data from thousands of institutions. Useful for civic infrastructure research. No individual health data and few public health indicators.                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food environment, SNAP participation, and rurality measures. Common in food insecurity and rural health work. Data are ecological and updates can lag behind.                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure VA-managed environment offering access to national EHR data for 9M+ veterans, including structured/unstructured data, pharmacy, imaging, and claims. Used in chronic disease and aging research.                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIH initiative collecting EHR, biospecimen, survey, and wearable data from 1M+ participants. Focus on diversity, longitudinal tracking, and personalized medicine via a secure Researcher Workbench.                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links Medicare claims to NIA-funded studies (e.g., HRS, NHATS). Enables longitudinal analysis of older adults' health, spending, and outcomes. Managed by Acumen LLC with curated, linked datasets.                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large dataset of claims + EHR for 200M+ patients, used in real-world evidence research. Strong linkage, cost/utilization analysis; access is proprietary and costly.                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federated EHR network used for real-time cohort building, feasibility assessment, and clinical trial recruitment. De-identified data from 120+ global healthcare orgs.                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCORnet network aggregating EHR and claims data from safety-net providers, focusing on underserved populations. Uses PCORnet CDM. Strong for health equity and primary care research.                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-source platform for EHR cohort discovery at academic centers. Provides aggregate patient counts for exploratory work. Customizable, but no direct access to patient-level data.                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIH-sponsored data enclave with harmonized EHR from 80+ institutions. Initially focused on COVID-19, now expanded. Supports ML and advanced analytics with OMOP-standardized data.                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global open-science network using the OMOP data model to enable distributed observational research across EHR and claims data. Tools for comparative effectiveness and large-scale phenotyping.                                               </t>
+  </si>
+  <si>
+    <t>The URBAN ARCH consortium includes three cohorts of people living with HIV in Mbarara, Uganda; St. Petersburg, Russia; and Boston, Massachusetts.</t>
+  </si>
+  <si>
+    <t>Established by the National Heart, Lung, and Blood Institute (NHLBI) in 1948 in Framingham, Massachusetts, the study follows multiple generations of participants to understand the determinants of cardiovascular disease and related chronic conditions.</t>
   </si>
 </sst>
 </file>
@@ -750,479 +759,488 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56A8E-4DDA-433F-A680-797C2DE799D9}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwm/Documents/GitHub/CHDS_bookdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D834472-C0CC-7F41-BE28-4F8F5071EA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AAC8DB-F3B5-E347-986A-747CCA765BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="11300" xr2:uid="{80686617-EE27-48D2-8DED-224E5B50C944}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t xml:space="preserve"> National survey            </t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Established by the National Heart, Lung, and Blood Institute (NHLBI) in 1948 in Framingham, Massachusetts, the study follows multiple generations of participants to understand the determinants of cardiovascular disease and related chronic conditions.</t>
+  </si>
+  <si>
+    <t>Originally established in 1984, the Alzheimer’s Disease Research Centers (ADRCs) are Congressionally designated Centers of Excellence. The ADRCs support the nation’s increased effort to address Alzheimer’s disease (AD) and Alzheimer’s disease-related dementias (ADRD) by providing information, local resources, support, and opportunities to participate in research.</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56A8E-4DDA-433F-A680-797C2DE799D9}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,6 +1245,9 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwm/Documents/GitHub/CHDS_bookdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AAC8DB-F3B5-E347-986A-747CCA765BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A7CB4-15F0-3D43-B393-7CAB9A9EED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="11300" xr2:uid="{80686617-EE27-48D2-8DED-224E5B50C944}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
-  <si>
-    <t xml:space="preserve"> National survey            </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t xml:space="preserve"> Administrative/claims                                   </t>
   </si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>OHDSI (Observational Health Data Sciences and Informatics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative/claims                                | </t>
   </si>
   <si>
     <t xml:space="preserve">Business and consumer dataset covering 15M+ U.S. businesses and 300M consumers. Useful for market research and outreach. Proprietary; may lack public health relevance or timeliness.     </t>
@@ -762,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56A8E-4DDA-433F-A680-797C2DE799D9}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,478 +769,478 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
